--- a/biology/Botanique/Valsusa/Valsusa.xlsx
+++ b/biology/Botanique/Valsusa/Valsusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Valsusa est un vignoble italien de la région Piémont dont les vins sont dotés d'une appellation DOC depuis le 31 octobre 1997. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent dans les communes de Almèse, Bourgon, Brussol, Bussolin, Chanoux, Chaumont, Chiaurie, Condoue, Exilles, Gravière, Jaillons, Mattie, Méans, Monpantier, Rubiane, Saint-Didier, Saint-Joire, Suse et Villar-Fouchard en province de Turin.  Les communes font partie du val de Suse.
 </t>
@@ -542,7 +556,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages suivants sont autorisés :
 Avana,
@@ -576,7 +592,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On produit deux types de vins :
 Valsusa rosso et le
